--- a/IFB299_Meeting_Table.xlsx
+++ b/IFB299_Meeting_Table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6DCD13-B9A0-4458-8369-9542BDBA479A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE27473-FE68-42C2-8C78-BB5F2CCA9066}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20712" windowHeight="9402" xr2:uid="{0A7D8776-10DB-4C02-B4B8-5523AA923E46}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="50">
   <si>
     <t>Date</t>
   </si>
@@ -148,6 +148,57 @@
   </si>
   <si>
     <t>2:10 h</t>
+  </si>
+  <si>
+    <t>Meeting Week 8</t>
+  </si>
+  <si>
+    <t>Meeting Week 9</t>
+  </si>
+  <si>
+    <t>Tutorial Week 8</t>
+  </si>
+  <si>
+    <t>Tutorial Week 9</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  N</t>
+    </r>
+  </si>
+  <si>
+    <t>Called in sick</t>
+  </si>
+  <si>
+    <t>1:15 h</t>
+  </si>
+  <si>
+    <t>1:00 h</t>
   </si>
 </sst>
 </file>
@@ -511,7 +562,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -546,6 +597,23 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -558,31 +626,16 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -909,10 +962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB6D41DF-CFF2-44D2-99DF-FE6B49967311}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -925,32 +978,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="19" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="13"/>
+      <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="14.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="20"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="18"/>
       <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
@@ -966,15 +1019,15 @@
       <c r="H2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="15"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="22"/>
     </row>
     <row r="3" spans="1:11" ht="17.100000000000001" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="5">
         <v>43153</v>
       </c>
@@ -996,8 +1049,8 @@
       <c r="I3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="21"/>
-      <c r="K3" s="22"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="13"/>
     </row>
     <row r="4" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A4" s="10" t="s">
@@ -1025,8 +1078,8 @@
       <c r="I4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="21"/>
-      <c r="K4" s="22"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A5" s="10" t="s">
@@ -1054,8 +1107,8 @@
       <c r="I5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="21"/>
-      <c r="K5" s="22"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A6" s="10" t="s">
@@ -1083,8 +1136,8 @@
       <c r="I6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="21"/>
-      <c r="K6" s="22"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A7" s="10" t="s">
@@ -1112,8 +1165,8 @@
       <c r="I7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="21"/>
-      <c r="K7" s="22"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="13"/>
     </row>
     <row r="8" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A8" s="10" t="s">
@@ -1141,8 +1194,8 @@
       <c r="I8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="22"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13"/>
     </row>
     <row r="9" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A9" s="10" t="s">
@@ -1170,10 +1223,10 @@
       <c r="I9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="J9" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="26"/>
+      <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A10" s="10" t="s">
@@ -1201,10 +1254,10 @@
       <c r="I10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="25" t="s">
+      <c r="J10" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="26"/>
+      <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A11" s="10" t="s">
@@ -1232,8 +1285,8 @@
       <c r="I11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="21"/>
-      <c r="K11" s="22"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="13"/>
     </row>
     <row r="12" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="10" t="s">
@@ -1261,8 +1314,8 @@
       <c r="I12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="21"/>
-      <c r="K12" s="22"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="13"/>
     </row>
     <row r="13" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13" s="10" t="s">
@@ -1290,8 +1343,8 @@
       <c r="I13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="21"/>
-      <c r="K13" s="22"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="13"/>
     </row>
     <row r="14" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A14" s="10" t="s">
@@ -1319,8 +1372,8 @@
       <c r="I14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="21"/>
-      <c r="K14" s="22"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="13"/>
     </row>
     <row r="15" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="10" t="s">
@@ -1348,8 +1401,8 @@
       <c r="I15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="21"/>
-      <c r="K15" s="22"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="13"/>
     </row>
     <row r="16" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="10" t="s">
@@ -1377,8 +1430,8 @@
       <c r="I16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="21"/>
-      <c r="K16" s="22"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="13"/>
     </row>
     <row r="17" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A17" s="10" t="s">
@@ -1406,8 +1459,8 @@
       <c r="I17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="21"/>
-      <c r="K17" s="22"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="13"/>
     </row>
     <row r="18" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A18" s="10" t="s">
@@ -1435,8 +1488,8 @@
       <c r="I18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="21"/>
-      <c r="K18" s="22"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="13"/>
     </row>
     <row r="19" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A19" s="10" t="s">
@@ -1464,8 +1517,8 @@
       <c r="I19" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J19" s="21"/>
-      <c r="K19" s="22"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="13"/>
     </row>
     <row r="20" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A20" s="10" t="s">
@@ -1493,8 +1546,8 @@
       <c r="I20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J20" s="21"/>
-      <c r="K20" s="22"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="13"/>
     </row>
     <row r="21" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="10" t="s">
@@ -1522,8 +1575,8 @@
       <c r="I21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="21"/>
-      <c r="K21" s="22"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="13"/>
     </row>
     <row r="22" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A22" s="10" t="s">
@@ -1551,8 +1604,8 @@
       <c r="I22" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J22" s="21"/>
-      <c r="K22" s="22"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="13"/>
     </row>
     <row r="23" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A23" s="10" t="s">
@@ -1580,28 +1633,183 @@
       <c r="I23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J23" s="21"/>
-      <c r="K23" s="22"/>
-    </row>
-    <row r="24" spans="1:11" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="13"/>
+    </row>
+    <row r="24" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A24" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="7">
+        <v>43216</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="12"/>
+      <c r="K24" s="13"/>
+    </row>
+    <row r="25" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A25" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="7">
+        <v>43216</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J25" s="12"/>
+      <c r="K25" s="13"/>
+    </row>
+    <row r="26" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A26" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="7">
+        <v>43221</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J26" s="12"/>
+      <c r="K26" s="13"/>
+    </row>
+    <row r="27" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A27" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="7">
+        <v>43223</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="K27" s="28"/>
+    </row>
+    <row r="28" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A28" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="7">
+        <v>43223</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J28" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="K28" s="28"/>
+    </row>
+    <row r="29" spans="1:11" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
+  <mergeCells count="57">
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="I1:I2"/>
@@ -1617,22 +1825,26 @@
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="J8:K8"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
